--- a/standaarden/Standaarden.xlsx
+++ b/standaarden/Standaarden.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="121">
   <si>
     <t>uri schema</t>
   </si>
@@ -123,9 +123,6 @@
   </si>
   <si>
     <t>1.1</t>
-  </si>
-  <si>
-    <t>2017-02-24</t>
   </si>
   <si>
     <t>W3C-DCAT-1.0</t>
@@ -340,6 +337,54 @@
   </si>
   <si>
     <t>replaces</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>https://www.iso.org/standard/26020.html</t>
+  </si>
+  <si>
+    <t>2003-05</t>
+  </si>
+  <si>
+    <t>https://www.iso.org/standard/53798.html</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2014-04</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>https://inspire.ec.europa.eu/id/document/tg/metadata-iso19139</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>2017-03-02</t>
+  </si>
+  <si>
+    <t>2013-10-29</t>
+  </si>
+  <si>
+    <t>https://inspire.ec.europa.eu/documents/inspire-metadata-implementing-rules-technical-guidelines-based-en-iso-19115-and-en-iso-1</t>
+  </si>
+  <si>
+    <t>https://github.com/dataoverheid/DCAT-AP-NL</t>
+  </si>
+  <si>
+    <t>https://data.overheid.nl/sites/default/files/2014-11-13%20DONL%20Datamodel%200.6%20kopie.pdf</t>
+  </si>
+  <si>
+    <t>2014-11-13</t>
+  </si>
+  <si>
+    <t>2015-10-23</t>
   </si>
 </sst>
 </file>
@@ -754,7 +799,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -807,7 +852,7 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E6" t="s">
         <v>22</v>
@@ -835,10 +880,10 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -849,15 +894,15 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
@@ -866,51 +911,51 @@
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -961,7 +1006,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>31</v>
@@ -978,7 +1023,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>25</v>
@@ -987,7 +1032,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="1"/>
@@ -995,7 +1040,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>21</v>
@@ -1012,7 +1057,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>23</v>
@@ -1021,7 +1066,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1"/>
@@ -1029,7 +1074,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>32</v>
@@ -1046,72 +1091,72 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1124,7 +1169,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1155,71 +1200,71 @@
         <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
         <v>50</v>
-      </c>
-      <c r="C3" t="s">
-        <v>51</v>
       </c>
       <c r="D3" t="s">
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1236,182 +1281,238 @@
         <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" t="s">
         <v>34</v>
-      </c>
-      <c r="G4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
         <v>55</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>56</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>57</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="C6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" t="s">
+        <v>107</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" t="s">
+        <v>110</v>
       </c>
       <c r="G7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>60</v>
+      </c>
+      <c r="C8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="G8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="C9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>114</v>
       </c>
       <c r="G9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" t="s">
         <v>69</v>
       </c>
-      <c r="B10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>70</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="G10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" t="s">
         <v>68</v>
       </c>
-      <c r="B11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" t="s">
-        <v>67</v>
-      </c>
-      <c r="H11" t="s">
-        <v>69</v>
-      </c>
       <c r="I11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" t="s">
         <v>94</v>
       </c>
-      <c r="D12" t="s">
-        <v>95</v>
-      </c>
       <c r="E12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="4"/>
+        <v>47</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>119</v>
+      </c>
       <c r="G12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" t="s">
         <v>77</v>
       </c>
-      <c r="B13" t="s">
-        <v>78</v>
+      <c r="C13" t="s">
+        <v>117</v>
       </c>
       <c r="D13" t="s">
         <v>33</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I13" t="s">
         <v>26</v>
@@ -1419,88 +1520,88 @@
     </row>
     <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" t="s">
         <v>75</v>
-      </c>
-      <c r="B14" t="s">
-        <v>76</v>
       </c>
       <c r="D14" t="s">
         <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" t="s">
         <v>81</v>
-      </c>
-      <c r="B15" t="s">
-        <v>82</v>
       </c>
       <c r="D15" t="s">
         <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" t="s">
         <v>83</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D16" t="s">
         <v>84</v>
       </c>
-      <c r="D16" t="s">
-        <v>85</v>
-      </c>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="4" t="s">
+      <c r="G17" t="s">
         <v>88</v>
-      </c>
-      <c r="G17" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/standaarden/Standaarden.xlsx
+++ b/standaarden/Standaarden.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITREPO\bp4mc2-dcat\standaarden\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcobrattinga/GITREPO/bp4mc2-dcat/standaarden/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B708E8-CADA-EE44-AB0C-7EC296E9CA65}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="18195" windowHeight="7485" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="460" windowWidth="20720" windowHeight="14360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="URI schema" sheetId="1" r:id="rId1"/>
@@ -390,7 +391,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -456,8 +457,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standaard 2" xfId="1"/>
-    <cellStyle name="Standaard 3" xfId="2"/>
+    <cellStyle name="Standaard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Standaard 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -475,7 +476,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -513,7 +514,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -548,6 +549,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -583,9 +601,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -758,23 +793,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="52" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -791,7 +826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -802,7 +837,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -816,7 +851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -830,7 +865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -844,7 +879,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -858,7 +893,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -872,7 +907,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -886,7 +921,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -900,7 +935,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -914,7 +949,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -925,7 +960,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -936,7 +971,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -947,7 +982,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -965,23 +1000,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1004,7 +1039,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
@@ -1021,7 +1056,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>36</v>
       </c>
@@ -1038,7 +1073,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>36</v>
       </c>
@@ -1055,7 +1090,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>36</v>
       </c>
@@ -1072,7 +1107,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>36</v>
       </c>
@@ -1089,7 +1124,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>36</v>
       </c>
@@ -1103,7 +1138,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>36</v>
       </c>
@@ -1117,7 +1152,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>36</v>
       </c>
@@ -1131,7 +1166,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>36</v>
       </c>
@@ -1145,7 +1180,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>36</v>
       </c>
@@ -1165,28 +1200,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5" customWidth="1"/>
+    <col min="6" max="6" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -1218,7 +1253,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -1241,7 +1276,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -1267,7 +1302,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -1293,7 +1328,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>54</v>
       </c>
@@ -1322,7 +1357,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>59</v>
       </c>
@@ -1342,7 +1377,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>61</v>
       </c>
@@ -1365,7 +1400,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -1384,11 +1419,11 @@
       <c r="G8" t="s">
         <v>66</v>
       </c>
-      <c r="J8" t="s">
+      <c r="I8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>62</v>
       </c>
@@ -1410,11 +1445,11 @@
       <c r="H9" t="s">
         <v>60</v>
       </c>
-      <c r="J9" t="s">
+      <c r="I9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -1440,7 +1475,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>67</v>
       </c>
@@ -1469,7 +1504,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>78</v>
       </c>
@@ -1492,7 +1527,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>76</v>
       </c>
@@ -1518,7 +1553,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>74</v>
       </c>
@@ -1541,7 +1576,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>80</v>
       </c>
@@ -1564,7 +1599,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>82</v>
       </c>
@@ -1584,7 +1619,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>86</v>
       </c>
